--- a/03.Clasificacion/Other_cycles/Other_cycles_p/P_WLTC Class3.xlsx
+++ b/03.Clasificacion/Other_cycles/Other_cycles_p/P_WLTC Class3.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23261.87037</v>
+        <v>15412.11111</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.49791</v>
+        <v>71.31568</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.89895</v>
+        <v>101.30784</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.40095</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>602</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>581</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1183</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.14831</v>
+        <v>0.12391</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.32333</v>
+        <v>-0.32085</v>
       </c>
     </row>
     <row r="14">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.05556</v>
+        <v>4.7619</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87</v>
+        <v>95.3668</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.88889</v>
+        <v>29.72973</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>65.11111</v>
+        <v>65.63706999999999</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>233.02315</v>
+        <v>80.4537</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01002</v>
+        <v>0.00522</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>644.72222</v>
+        <v>261.81019</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02772</v>
+        <v>0.01699</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>638.72734</v>
+        <v>259.77275</v>
       </c>
     </row>
   </sheetData>
